--- a/экономика/диаграммы.xlsx
+++ b/экономика/диаграммы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Mikalai_Bahdanau\Diplom\экономика\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Diplom\экономика\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Зо</t>
   </si>
@@ -39,48 +39,6 @@
   </si>
   <si>
     <t>Ропх</t>
-  </si>
-  <si>
-    <r>
-      <t>С</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>пр</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>С</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>п</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>ЧДД</t>
@@ -106,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,14 +81,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -268,16 +218,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -394,38 +344,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -486,9 +404,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$1:$A$7</c:f>
+              <c:f>Лист1!$A$1:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Зо</c:v>
                 </c:pt>
@@ -504,21 +422,15 @@
                 <c:pt idx="4">
                   <c:v>Ропх</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Спр</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Сп </c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$1:$B$7</c:f>
+              <c:f>Лист1!$B$1:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6500000</c:v>
                 </c:pt>
@@ -533,12 +445,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4550000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16445000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16445000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,9 +602,7 @@
               <c:idx val="0"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -976,11 +880,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="325916152"/>
-        <c:axId val="325910272"/>
+        <c:axId val="329183920"/>
+        <c:axId val="329184312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="325916152"/>
+        <c:axId val="329183920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325910272"/>
+        <c:crossAx val="329184312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1030,7 +934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325910272"/>
+        <c:axId val="329184312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +985,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325916152"/>
+        <c:crossAx val="329183920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2594,8 +2498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E21"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,28 +2552,10 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>16445000</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>16445000</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" s="9">
         <v>-10.8</v>
@@ -2686,7 +2572,7 @@
     </row>
     <row r="21" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" s="11">
         <v>-10.8</v>
